--- a/Program Manager Capstone/Program Risk Register Solution.xlsx
+++ b/Program Manager Capstone/Program Risk Register Solution.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80b4d01e8c5b5425/Documents/Skill Up/Program Manager/200836 Course 5 Program Management Capstone Course/Module 3/200836.031 Communications and Risk Planning Lab M3-L1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13619807-C2E2-4958-84E0-32897E6294B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2EDC927B-207A-4330-84BA-18169EA71524}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Register Solution" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Risk Register Solution'!$A$1:$L$22</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -579,8 +581,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +610,20 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -759,27 +775,11 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -807,6 +807,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,568 +1168,554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A6B147-D1DF-4B56-BA9F-090A0C53346A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="L22" sqref="A1:L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="63.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" ht="94.5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>H3*I3</f>
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12" ht="94.5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J12" si="0">H4*I4</f>
         <v>15</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" ht="78.75">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="94.5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" ht="105">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" ht="75">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12" ht="75">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:12" ht="90">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>5</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:12" ht="90">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>-4</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:12" ht="90">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>-4</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="13" spans="1:12" s="17" customFormat="1" ht="17.399999999999999">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6">
-        <f>SUM(J3:J13)</f>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>SUM(J3:J12)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" thickBot="1"/>
+    <row r="15" spans="1:12" ht="39" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="39" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="39" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="39" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="39" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="39" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="39" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="39" customHeight="1" thickBot="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="B24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:D23"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A15:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="38" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>